--- a/main/assets/unicode_name.xlsx
+++ b/main/assets/unicode_name.xlsx
@@ -7,29 +7,173 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Google Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Yellow Pages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Zup nigga</t>
-  </si>
-  <si>
-    <t>Zup bro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+  <si>
+    <t>Sitio</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Telefonos</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Pagina Contacto</t>
+  </si>
+  <si>
+    <t>Directorio de abogados en Miami, Florida - Abogado</t>
+  </si>
+  <si>
+    <t>http://www.abogado.com/florida/miami/</t>
+  </si>
+  <si>
+    <t>(800)397-3743,</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>http://www.abogado.com/contactenos.html</t>
+  </si>
+  <si>
+    <t>Miami Bankruptcy Lawyers - Bankruptcy Attorneys, Miami FL</t>
+  </si>
+  <si>
+    <t>http://www.freiregonzalez.com/</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Abogados De Accidentes En Miami</t>
+  </si>
+  <si>
+    <t>http://www.clinicadeaccidentesmiami.com/abogados-de-accidentes-en-miami-243913/</t>
+  </si>
+  <si>
+    <t>305-761-6528,954-510-5518,</t>
+  </si>
+  <si>
+    <t>Abogados de Miami se unen para dar respaldo legal a denuncias ...</t>
+  </si>
+  <si>
+    <t>http://www.diariolasamericas.com/florida/abogados-miami-se-unen-dar-respaldo-legal-denuncias-contra-represores-cubanos-n4124126</t>
+  </si>
+  <si>
+    <t>(305)350-3480,(305)350-3480,(305)633-0554,</t>
+  </si>
+  <si>
+    <t>http://www.diariolasamericas.com/contenidos/contactenos.html</t>
+  </si>
+  <si>
+    <t>Abogado Criminalista de Miami - Abogado Defensor de Casos ...</t>
+  </si>
+  <si>
+    <t>http://abogado.jeffweiner.com/</t>
+  </si>
+  <si>
+    <t>3056709919,</t>
+  </si>
+  <si>
+    <t>['lawfirm@jeffweiner.com']</t>
+  </si>
+  <si>
+    <t>http://abogado.jeffweiner.com/contactenos/</t>
+  </si>
+  <si>
+    <t>Abogados de Miami FL Litigios Comerciales | Fort Lauderdale ...</t>
+  </si>
+  <si>
+    <t>http://www.gjb-law.com/En-Espanol/</t>
+  </si>
+  <si>
+    <t>http://www.gjb-law.com/Contact.shtml</t>
+  </si>
+  <si>
+    <t>Abogado Para Accidentes En North Miami Fl | Dr. Keren Gomez</t>
+  </si>
+  <si>
+    <t>http://drkerengomez.com/abogado-para-accidentes-en-north-miami-fl-224633/</t>
+  </si>
+  <si>
+    <t>305-761-6528,954-510-5518,561-414-2401,</t>
+  </si>
+  <si>
+    <t>['info@drkerengomez.com']</t>
+  </si>
+  <si>
+    <t>http://drkerengomez.com/contact/</t>
+  </si>
+  <si>
+    <t>Hallan muerto a prominente abogado de Miami - Telemundo 51</t>
+  </si>
+  <si>
+    <t>http://www.telemundo51.com/noticias/destacados/Hallan-muerto-a-conocido-abogado-de-Miami-427495773.html</t>
+  </si>
+  <si>
+    <t>Miami, FL Personal Injury Attorneys - Jose Francisco</t>
+  </si>
+  <si>
+    <t>http://josefrancisco-lawyers.com/</t>
+  </si>
+  <si>
+    <t>3056495060,9546495060,5616495060,3056495060,9546495060,5616495060,</t>
+  </si>
+  <si>
+    <t>http://josefrancisco-lawyers.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Miami Abogado de Lesión - Hialeah Abogado de Accidente - Grupo ...</t>
+  </si>
+  <si>
+    <t>https://abogado.friedlandlawgroup.com/</t>
+  </si>
+  <si>
+    <t>305-661-2008,305-661-2008,305-661-2008,</t>
+  </si>
+  <si>
+    <t>https://abogado.friedlandlawgroup.com/contactenos.html</t>
+  </si>
+  <si>
+    <t>http://www.diariolasamericas.com/florida/muere-los-57-anos-miami-el-prominente-abogado-ervin-a-gonzalez-n4124025</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/eoir/lista-de-abogados-disciplinados-actualmente</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/contact-us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,23 +496,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="B10" r:id="rId14"/>
+    <hyperlink ref="F10" r:id="rId15"/>
+    <hyperlink ref="B11" r:id="rId16"/>
+    <hyperlink ref="F11" r:id="rId17"/>
+    <hyperlink ref="B12" r:id="rId18"/>
+    <hyperlink ref="F12" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="F13" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/assets/unicode_name.xlsx
+++ b/main/assets/unicode_name.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="469">
   <si>
     <t>Sitio</t>
   </si>
@@ -29,133 +29,1399 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Pagina Contacto</t>
+  </si>
+  <si>
+    <t>La Casita Dentist, Dentista, Dentist in Miami-Lacasitadental.com</t>
+  </si>
+  <si>
+    <t>http://lacasitadental.com/</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Miami Dental Sedation Spa: Sedation Dentistry Miami FL</t>
+  </si>
+  <si>
+    <t>http://www.miamidentalsedationspa.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)445-4646, (305)445-4646 , (305)445-4646 </t>
+  </si>
+  <si>
+    <t>http://www.miamidentalsedationspa.com/contact-us</t>
+  </si>
+  <si>
+    <t>Pro Dental Centers: Miami Dentists | Dentista Miami</t>
+  </si>
+  <si>
+    <t>http://prodentalcenters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)330-9261, (305)-330-9261 , (305)625-8272 , (305)625-8272 , (305)330-9261 </t>
+  </si>
+  <si>
+    <t>['info@kendallwooddentalcenter.com']</t>
+  </si>
+  <si>
+    <t>http://prodentalcenters.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Miami Modern Dental: Dentist Miami FL - Dental Care</t>
+  </si>
+  <si>
+    <t>http://www.miamimoderndental.com/</t>
+  </si>
+  <si>
+    <t>(786)338-9228</t>
+  </si>
+  <si>
+    <t>['miamimoderndental@gmail.com']</t>
+  </si>
+  <si>
+    <t>http://www.miamimoderndental.com/contact-us.html</t>
+  </si>
+  <si>
+    <t>Miami Beach Dentist | Miami Beach Dental Center</t>
+  </si>
+  <si>
+    <t>https://www.towncaredental.com/locations/miami-beach-dental-center/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(855)979-3502, (855)979-3502 </t>
+  </si>
+  <si>
+    <t>https://www.towncaredental.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Periodontics &amp; Implant Dentistry | Miami, FL - Dr. Gallardo &amp; Dr. Lamas</t>
+  </si>
+  <si>
+    <t>https://www.miamiperio.com/</t>
+  </si>
+  <si>
+    <t>Dentist Miami Beach, FL: Crowns, Veneers, Dental Implants ...</t>
+  </si>
+  <si>
+    <t>http://www.towncaredental.com/locations/miami-beach/</t>
+  </si>
+  <si>
+    <t>Otero Dental Centers</t>
+  </si>
+  <si>
+    <t>https://oterodentalcenters.com/</t>
+  </si>
+  <si>
+    <t>Gateway Dental | Dentist | Miami Florida</t>
+  </si>
+  <si>
+    <t>http://gatewaydentalinc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)856-2300, (305)856-2300 , (305)856-2300 , (305)856-2300 , (305)856-2300 </t>
+  </si>
+  <si>
+    <t>http://gatewaydentalinc.com/contact-us/</t>
+  </si>
+  <si>
+    <t>http://www.javierandrade.com/</t>
+  </si>
+  <si>
+    <t>Find BBB Accredited Attorneys and Lawyers near Miami, FL</t>
+  </si>
+  <si>
+    <t>http://www.bbb.org/south-east-florida/accredited-business-directory/attorneys-and-lawyers/miami-fl</t>
+  </si>
+  <si>
+    <t>Find BBB Accredited Bankruptcy Attorneys and Lawyers near Miami ...</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/south-east-florida/accredited-business-directory/attorneys-and-lawyers-bankruptcy/miami-fl</t>
+  </si>
+  <si>
+    <t>Miami Employment Law Firm | FL | Law Office of Lowell J. Kuvin</t>
+  </si>
+  <si>
+    <t>https://www.kuvin.law/</t>
+  </si>
+  <si>
+    <t>University of Miami School of Law: Homepage</t>
+  </si>
+  <si>
+    <t>http://www.law.miami.edu/</t>
+  </si>
+  <si>
+    <t>['externalaffairs@law.miami.edu']</t>
+  </si>
+  <si>
+    <t>Find the best lawyer in Miami, FL - Avvo</t>
+  </si>
+  <si>
+    <t>https://www.avvo.com/all-lawyers/fl/miami.html</t>
+  </si>
+  <si>
+    <t>Florida Traffic Violations Attorney | Criminal Defense Lawyer</t>
+  </si>
+  <si>
+    <t>http://www.alexhanna.com/</t>
+  </si>
+  <si>
+    <t>http://www.alexhanna.com/Contact.shtml</t>
+  </si>
+  <si>
+    <t>Top 10 Family Law Attorneys near the Miami, FL Area - Custody X ...</t>
+  </si>
+  <si>
+    <t>https://www.custodyxchange.com/showcase/top-10-family-law-attorneys-near-miami-fl/</t>
+  </si>
+  <si>
+    <t>https://www.custodyxchange.com/misc/contact-app.php</t>
+  </si>
+  <si>
+    <t>Miami Workers Compensation Lawyer - Miami-Dade County, Florida ...</t>
+  </si>
+  <si>
+    <t>https://www.sadowandgorowitz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-539-9000, 305-539-9000 , 305-530-0033 , 305-539-9000 , 305-539-9000 , 305-530-0033 , 305-539-9000 , 305-539-9000 , 305-530-0033 , 305-539-9000 , 305-539-9000 , 305-539-9000 , 305-539-9000 , 305-530-0033 , 305-539-9000 , 305-539-9000 , 305-530-0033 , 305-539-9000 , 305-539-9000 , 305-530-0033 </t>
+  </si>
+  <si>
+    <t>['suzanne@sg440.com']</t>
+  </si>
+  <si>
+    <t>https://www.sadowandgorowitz.com/contact-us.html</t>
+  </si>
+  <si>
+    <t>Law Office of Stuart L. Tockman, PA: Attorneys | Miami, FL</t>
+  </si>
+  <si>
+    <t>http://www.tockmanlaw.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(786)808-6244, (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 , (786)808-6244 </t>
+  </si>
+  <si>
+    <t>['tockmanpa@aol.com']</t>
+  </si>
+  <si>
+    <t>http://www.tockmanlaw.com/contact-us</t>
+  </si>
+  <si>
+    <t>Law Offices Of Mery Lopez: Real Estate Attorney Miami FL | Real ...</t>
+  </si>
+  <si>
+    <t>http://www.realestateattorney-miamifl.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)882-2739, (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 , (305)882-2739 </t>
+  </si>
+  <si>
+    <t>http://www.realestateattorney-miamifl.com/contactus</t>
+  </si>
+  <si>
+    <t>https://www.avvo.com/bankruptcy-debt-lawyer/fl/miami.html</t>
+  </si>
+  <si>
+    <t>https://law.fiu.edu/</t>
+  </si>
+  <si>
+    <t>https://www.avvo.com/social-security-lawyer/fl/miami.html</t>
+  </si>
+  <si>
+    <t>Miami Lakes Veterinary Clinic</t>
+  </si>
+  <si>
+    <t>http://miamilakesvet.com/</t>
+  </si>
+  <si>
+    <t>Miami Veterinarian | Animal Clinic of Ives Dairy Road | Aventura Vet</t>
+  </si>
+  <si>
+    <t>http://www.ivesdairyanimalclinic.com/</t>
+  </si>
+  <si>
+    <t>Flannery Animal Hospital: Veterinarians New Windsor New York</t>
+  </si>
+  <si>
+    <t>http://flanneryanimalhosp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845-565-7387, 845-565-7387 , 845-565-7387 </t>
+  </si>
+  <si>
+    <t>Mobile Vet Squad: Mobile Veterinarian in Westchester County, NY ...</t>
+  </si>
+  <si>
+    <t>https://www.mobilevetsquad.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(914)575-1943, (914)575-1943 , (914)575-1943 , (914)575-1943 , (914)575-1943 , (914)575-1943 </t>
+  </si>
+  <si>
+    <t>['info@mobilevetsquad.com']</t>
+  </si>
+  <si>
+    <t>https://www.mobilevetsquad.com/contact/</t>
+  </si>
+  <si>
+    <t>Chathams Small Animal Hospital</t>
+  </si>
+  <si>
+    <t>http://chathamsmallanimal.vetstreet.com/</t>
+  </si>
+  <si>
+    <t>http://chathamsmallanimal.vetstreet.com/contact_us.html</t>
+  </si>
+  <si>
+    <t>Center for Avian and Exotic Medicine—Specialty Veterinarians, New ...</t>
+  </si>
+  <si>
+    <t>https://avianandexoticvets.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212-501-8750, 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 , 212-501-8750 </t>
+  </si>
+  <si>
+    <t>https://avianandexoticvets.com/contact/</t>
+  </si>
+  <si>
+    <t>Inwood Animal Clinic New York | New York, NY</t>
+  </si>
+  <si>
+    <t>http://inwoodanimalclinic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347-773-5476, 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 , 347-773-5476 </t>
+  </si>
+  <si>
+    <t>['info@inwoodanimalclinic.com', 'info@inwoodanimalclinic.com']</t>
+  </si>
+  <si>
+    <t>http://inwoodanimalclinic.com/contact-us/</t>
+  </si>
+  <si>
+    <t>East Fishkill Animal Hospital - Hopewell Junction, NY</t>
+  </si>
+  <si>
+    <t>http://www.eastfishkillanimalhospital.com/</t>
+  </si>
+  <si>
+    <t>http://www.eastfishkillanimalhospital.com/locations/new-york/hopewell-junction-east-fishkill-animal-hospital/contact-us</t>
+  </si>
+  <si>
+    <t>Rondout Valley Veterinary Associates - Pet Services - Kerhonkson ...</t>
+  </si>
+  <si>
+    <t>http://www.rvvets.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8456265555, 8456265555 , 8456265555 , 8456265555 </t>
+  </si>
+  <si>
+    <t>['rondoutvalleyvets@gmail.com']</t>
+  </si>
+  <si>
+    <t>http://www.rvvets.com/contact.html</t>
+  </si>
+  <si>
+    <t>Walden Animal Clinic: Veterinarian in Walden, NY</t>
+  </si>
+  <si>
+    <t>https://waldenanimalclinic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(845)778-7343, (845)778-7343 , (845)778-7343 , (845)778-7343 , (845)778-7343 , (845)778-7343 </t>
+  </si>
+  <si>
+    <t>https://waldenanimalclinic.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Bronx Veterinary Center | Webster Avenue Veterinary Care | Bronx ...</t>
+  </si>
+  <si>
+    <t>http://www.bronxvetcenter.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(718)933-1002, (718)933-1002 , (718)933-1002 , (718)933-1002 , (718)933-1002 , (718)933-1002 </t>
+  </si>
+  <si>
+    <t>http://www.bronxvetcenter.com/contact.php</t>
+  </si>
+  <si>
+    <t>Carnegie Hill Veterinarians - Veterinarian In New York, NY USA ...</t>
+  </si>
+  <si>
+    <t>http://carnegiehillveterinarians.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212-369-5665, 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 , 212-369-5665 </t>
+  </si>
+  <si>
+    <t>http://carnegiehillveterinarians.com/contact-us.html</t>
+  </si>
+  <si>
+    <t>http://www.newhartfordanimalhospital.com/</t>
+  </si>
+  <si>
+    <t>http://www.newhartfordanimalhospital.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://eriecanalah.com/</t>
+  </si>
+  <si>
+    <t>http://www.villagelakesveterinaryhospital.com/</t>
+  </si>
+  <si>
+    <t>http://www.villagelakesveterinaryhospital.com/contact_us.html</t>
+  </si>
+  <si>
+    <t>https://bluepearlvet.com/new-york-midtown-ny/</t>
+  </si>
+  <si>
+    <t>Despacho de abogados en Miami | MarreroLawFirm.com</t>
+  </si>
+  <si>
+    <t>http://www.marrerolawfirm.com/Inicio/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-446-9466, 800-201-2002 , 305-446-9466 </t>
+  </si>
+  <si>
+    <t>http://www.marrerolawfirm.com/Contact.shtml</t>
+  </si>
+  <si>
+    <t>Miami Abogado de Lesion :: Abogados de Florida :: Florida del Sur ...</t>
+  </si>
+  <si>
+    <t>https://www.floridainjurylawyer.pro/abogados-de-florida.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(877)448-8585, (305)448-8585 </t>
+  </si>
+  <si>
+    <t>http://www.stabinskilaw.com/videos/videos-en-espanol/la-elecci-n-de-su-abogado/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3059648644, (305)964-8644 , (305)964-8644 , (305)643-3100 , (305)964-8644 </t>
+  </si>
+  <si>
+    <t>http://www.stabinskilaw.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Miami Real Estate - Miami FL Homes For Sale | Zillow</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/miami-fl/</t>
+  </si>
+  <si>
+    <t>Miami, FL Real Estate - Miami Homes for Sale - realtor.com®</t>
+  </si>
+  <si>
+    <t>https://www.realtor.com/realestateandhomes-search/Miami_FL</t>
+  </si>
+  <si>
+    <t>['unblockrequest@realtor.com']</t>
+  </si>
+  <si>
+    <t>Miami Real Estate | Find Houses &amp; Homes for Sale in Miami, FL</t>
+  </si>
+  <si>
+    <t>https://www.century21.com/real-estate/miami-fl/LCFLMIAMI/</t>
+  </si>
+  <si>
+    <t>Miami Beach Real Estate - Miami Beach FL Homes For Sale | Zillow</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/miami-beach-fl/</t>
+  </si>
+  <si>
+    <t>Miami Beach, Florida, United States Luxury Real Estate and Homes ...</t>
+  </si>
+  <si>
+    <t>http://www.sothebysrealty.com/eng/sales/miami-beach-fl-usa</t>
+  </si>
+  <si>
+    <t>8668994747</t>
+  </si>
+  <si>
+    <t>['refg.jobs@sothebysrealty.com']</t>
+  </si>
+  <si>
+    <t>http://www.sothebysrealty.com/eng/contact-us</t>
+  </si>
+  <si>
+    <t>Will Hurricane Irma's near miss sink Miami real estate prices?</t>
+  </si>
+  <si>
+    <t>http://www.miamiherald.com/news/business/real-estate-news/article174468666.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)376-3429, (305)376-3504 , (305)376-3517 , (305)376-3685 , (305)376-3588 , (305)376-3757 , (305)376-2635 </t>
+  </si>
+  <si>
+    <t>8610 Homes for Sale in Miami, FL | Miami Real Estate - Movoto</t>
+  </si>
+  <si>
+    <t>http://www.movoto.com/miami-fl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(877)277-3448, (877)277-3448 , (877)277-3448 , (877)277-3448 </t>
+  </si>
+  <si>
+    <t>http://www.movoto.com/about/contactus/</t>
+  </si>
+  <si>
+    <t>Miami, FL Real Estate &amp; Homes For Sale | Trulia</t>
+  </si>
+  <si>
+    <t>https://www.trulia.com/FL/Miami/</t>
+  </si>
+  <si>
+    <t>Miami Beach, FL Real Estate &amp; Homes for Sale | Redfin</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/city/11467/FL/Miami-Beach</t>
+  </si>
+  <si>
+    <t>Cervera Real Estate | Buy, rent, or sell a home, condominium or ...</t>
+  </si>
+  <si>
+    <t>https://www.cervera.com/</t>
+  </si>
+  <si>
+    <t>1(305)374-3434</t>
+  </si>
+  <si>
+    <t>['info@cervera.com']</t>
+  </si>
+  <si>
+    <t>https://www.cervera.com/contact</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/city/11477/FL/Miami-Gardens</t>
+  </si>
+  <si>
+    <t>Murder suspect shot dead by Miami-Dade police near Turner...</t>
+  </si>
+  <si>
+    <t>https://www.local10.com/news/crime/shooting-near-turner-guilford-knight-correctional-center</t>
+  </si>
+  <si>
+    <t>Police Officer Heading Home Shoots and Kills Man Stabbing ...</t>
+  </si>
+  <si>
+    <t>http://www.nbcmiami.com/news/local/Miami-Police-Officer-Involved-in-Shooting-440154363.html</t>
+  </si>
+  <si>
+    <t>Miami-Dade police major injured in crash on I-75 near Miami Lakes</t>
+  </si>
+  <si>
+    <t>https://www.local10.com/news/miami-dade-police-major-injured-in-crash-on-i-75-near-miami-lakes</t>
+  </si>
+  <si>
+    <t>Man wanted for murder fatally shot by Miami-Dade police near ...</t>
+  </si>
+  <si>
+    <t>http://www.sun-sentinel.com/local/miami-dade/sfl-dade-murder-suspect-shot-20170606-story.html</t>
+  </si>
+  <si>
+    <t>Northside District - Miami-Dade County</t>
+  </si>
+  <si>
+    <t>http://www.miamidade.gov/police/contacts-northside.asp</t>
+  </si>
+  <si>
+    <t>Miami Gardens Police Department | Home</t>
+  </si>
+  <si>
+    <t>https://www.miamigardenspolice.org/</t>
+  </si>
+  <si>
+    <t>Miami-Dade Police - Miami-Dade County</t>
+  </si>
+  <si>
+    <t>http://www.miamidade.gov/police/</t>
+  </si>
+  <si>
+    <t>Police: Burger King Brawl Turns Into Shooting Near Bird Road ...</t>
+  </si>
+  <si>
+    <t>http://miami.cbslocal.com/2017/08/22/large-police-presence-in-sw-miami-dade-near-bird-road/</t>
+  </si>
+  <si>
+    <t>['cbslocaldigitalsales@cbs.com']</t>
+  </si>
+  <si>
+    <t>http://miami.cbslocal.com/about-us/contact-us/</t>
+  </si>
+  <si>
+    <t>35 charged with underage drinking last weekend near Miami ...</t>
+  </si>
+  <si>
+    <t>http://www.wcpo.com/news/education/higher-education/miami-u-news/32-charged-with-underage-drinking-near-miami-university</t>
+  </si>
+  <si>
+    <t>513-721-9900</t>
+  </si>
+  <si>
+    <t>['newsdesk@wcpo.com']</t>
+  </si>
+  <si>
+    <t>http://www.wcpo.com/about/contact</t>
+  </si>
+  <si>
+    <t>Suspect Flees Stabbing Near Miami Dade College Kendall Campus ...</t>
+  </si>
+  <si>
+    <t>http://miami.cbslocal.com/2017/06/01/suspect-flees-stabbing-miami-dade-college-kendall/</t>
+  </si>
+  <si>
+    <t>http://www.whio.com/news/local/troy-police-locate-shooting-victim-near-miami-county-courthouse/tnMKgQ6wizp4vFHzPZDdIN/</t>
+  </si>
+  <si>
+    <t>http://www.daytondailynews.com/news/local/deputies-man-critical-after-self-inflicted-shooting-miami-courthouse/tnMKgQ6wizp4vFHzPZDdIN/</t>
+  </si>
+  <si>
+    <t>http://www.miaminewtimes.com/news/miami-beach-police-shoot-cariann-denise-hithon-honor-student-near-ocean-drive-9734448</t>
+  </si>
+  <si>
+    <t>http://www.miaminewtimes.com/about/contact</t>
+  </si>
+  <si>
+    <t>http://www.miamiherald.com/news/local/community/miami-dade/kendall/article171314187.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)376-3429, (305)376-3504 , (305)376-3517 , (305)376-3685 , (305)376-3588 </t>
+  </si>
+  <si>
+    <t>Homewood Suites Dolphin Mall Hotel Near Miami, Florida</t>
+  </si>
+  <si>
+    <t>http://homewoodsuites3.hilton.com/en/hotels/florida/homewood-suites-by-hilton-miami-dolphin-mall-MIADMHW/index.html</t>
+  </si>
+  <si>
+    <t>Hotels near Miami Beach Convention Center (Miami Beach) - KAYAK</t>
+  </si>
+  <si>
+    <t>https://www.kayak.com/Miami-Beach-Hotels_Miami-Beach-Convention-Center.L8842.30651.hotel.ksp</t>
+  </si>
+  <si>
+    <t>Best Architects and Building Designers in Miami | Houzz</t>
+  </si>
+  <si>
+    <t>https://www.houzz.com/professionals/architect/miami</t>
+  </si>
+  <si>
+    <t>Rene Gonzalez Architect | Home</t>
+  </si>
+  <si>
+    <t>http://www.renegonzalezarchitect.com/</t>
+  </si>
+  <si>
+    <t>Miami Beach Golf Club - Miami Beach, FL</t>
+  </si>
+  <si>
+    <t>https://www.miamibeachgolfclub.com/</t>
+  </si>
+  <si>
+    <t>(305)532-3350</t>
+  </si>
+  <si>
+    <t>https://www.miamibeachgolfclub.com/contact</t>
+  </si>
+  <si>
+    <t>Official Miami Dade College Homepage</t>
+  </si>
+  <si>
+    <t>http://www.mdc.edu/</t>
+  </si>
+  <si>
+    <t>['mdcinfo@mdc.edu']</t>
+  </si>
+  <si>
+    <t>http://www.mdc.edu/about/contact/</t>
+  </si>
+  <si>
+    <t>Melreese Country Club: Miami International Links</t>
+  </si>
+  <si>
+    <t>http://www.internationallinksgolfclub.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)633-4583, (305)633-4583 </t>
+  </si>
+  <si>
+    <t>http://www.internationallinksgolfclub.com/contact-us.php</t>
+  </si>
+  <si>
+    <t>School of Architecture | University of Miami</t>
+  </si>
+  <si>
+    <t>http://www.arc.miami.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-284-2374, 305-284-2211 , (305)2843731 , (305)2843731 </t>
+  </si>
+  <si>
+    <t>Miami International University of Art &amp; Design</t>
+  </si>
+  <si>
+    <t>https://www.artinstitutes.edu/miami</t>
+  </si>
+  <si>
+    <t>(888)597-7665</t>
+  </si>
+  <si>
+    <t>['newsroom@edmc.edu', 'materialsreview@aii.edu']</t>
+  </si>
+  <si>
+    <t>Zaha Hadid, world's only superstar female architect, dies in Miami ...</t>
+  </si>
+  <si>
+    <t>http://www.miamiherald.com/news/local/community/miami-dade/article69331302.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)376-3429, (305)376-3504 </t>
+  </si>
+  <si>
+    <t>https://www.angieslist.com/companylist/miami/architects.htm</t>
+  </si>
+  <si>
+    <t>http://arquitectonica.com/</t>
+  </si>
+  <si>
+    <t>http://arquitectonica.com/contact-us/offices/</t>
+  </si>
+  <si>
+    <t>http://www.hamedrodriguez.com/</t>
+  </si>
+  <si>
+    <t>['hamed@hr-architects-inc.com']</t>
+  </si>
+  <si>
+    <t>http://www.hamedrodriguez.com/contactus.html</t>
+  </si>
+  <si>
+    <t>http://oppenoffice.com/</t>
+  </si>
+  <si>
+    <t>http://perkinswill.com/offices/miami.html</t>
+  </si>
+  <si>
+    <t>http://www.sb-architects.com/</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/q-Architect-jobs.html</t>
+  </si>
+  <si>
+    <t>http://kzarchitecture.com/</t>
+  </si>
+  <si>
     <t>Direccion</t>
   </si>
   <si>
-    <t>Pagina Contacto</t>
-  </si>
-  <si>
-    <t>Directorio de abogados en Miami, Florida - Abogado</t>
-  </si>
-  <si>
-    <t>http://www.abogado.com/florida/miami/</t>
-  </si>
-  <si>
-    <t>(800)397-3743,</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>http://www.abogado.com/contactenos.html</t>
-  </si>
-  <si>
-    <t>Miami Bankruptcy Lawyers - Bankruptcy Attorneys, Miami FL</t>
-  </si>
-  <si>
-    <t>http://www.freiregonzalez.com/</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Abogados De Accidentes En Miami</t>
-  </si>
-  <si>
-    <t>http://www.clinicadeaccidentesmiami.com/abogados-de-accidentes-en-miami-243913/</t>
-  </si>
-  <si>
-    <t>305-761-6528,954-510-5518,</t>
-  </si>
-  <si>
-    <t>Abogados de Miami se unen para dar respaldo legal a denuncias ...</t>
-  </si>
-  <si>
-    <t>http://www.diariolasamericas.com/florida/abogados-miami-se-unen-dar-respaldo-legal-denuncias-contra-represores-cubanos-n4124126</t>
-  </si>
-  <si>
-    <t>(305)350-3480,(305)350-3480,(305)633-0554,</t>
-  </si>
-  <si>
-    <t>http://www.diariolasamericas.com/contenidos/contactenos.html</t>
-  </si>
-  <si>
-    <t>Abogado Criminalista de Miami - Abogado Defensor de Casos ...</t>
-  </si>
-  <si>
-    <t>http://abogado.jeffweiner.com/</t>
-  </si>
-  <si>
-    <t>3056709919,</t>
-  </si>
-  <si>
-    <t>['lawfirm@jeffweiner.com']</t>
-  </si>
-  <si>
-    <t>http://abogado.jeffweiner.com/contactenos/</t>
-  </si>
-  <si>
-    <t>Abogados de Miami FL Litigios Comerciales | Fort Lauderdale ...</t>
-  </si>
-  <si>
-    <t>http://www.gjb-law.com/En-Espanol/</t>
-  </si>
-  <si>
-    <t>http://www.gjb-law.com/Contact.shtml</t>
-  </si>
-  <si>
-    <t>Abogado Para Accidentes En North Miami Fl | Dr. Keren Gomez</t>
-  </si>
-  <si>
-    <t>http://drkerengomez.com/abogado-para-accidentes-en-north-miami-fl-224633/</t>
-  </si>
-  <si>
-    <t>305-761-6528,954-510-5518,561-414-2401,</t>
-  </si>
-  <si>
-    <t>['info@drkerengomez.com']</t>
-  </si>
-  <si>
-    <t>http://drkerengomez.com/contact/</t>
-  </si>
-  <si>
-    <t>Hallan muerto a prominente abogado de Miami - Telemundo 51</t>
-  </si>
-  <si>
-    <t>http://www.telemundo51.com/noticias/destacados/Hallan-muerto-a-conocido-abogado-de-Miami-427495773.html</t>
-  </si>
-  <si>
-    <t>Miami, FL Personal Injury Attorneys - Jose Francisco</t>
-  </si>
-  <si>
-    <t>http://josefrancisco-lawyers.com/</t>
-  </si>
-  <si>
-    <t>3056495060,9546495060,5616495060,3056495060,9546495060,5616495060,</t>
-  </si>
-  <si>
-    <t>http://josefrancisco-lawyers.com/contact-us/</t>
-  </si>
-  <si>
-    <t>Miami Abogado de Lesión - Hialeah Abogado de Accidente - Grupo ...</t>
-  </si>
-  <si>
-    <t>https://abogado.friedlandlawgroup.com/</t>
-  </si>
-  <si>
-    <t>305-661-2008,305-661-2008,305-661-2008,</t>
-  </si>
-  <si>
-    <t>https://abogado.friedlandlawgroup.com/contactenos.html</t>
-  </si>
-  <si>
-    <t>http://www.diariolasamericas.com/florida/muere-los-57-anos-miami-el-prominente-abogado-ervin-a-gonzalez-n4124025</t>
-  </si>
-  <si>
-    <t>https://www.justice.gov/eoir/lista-de-abogados-disciplinados-actualmente</t>
-  </si>
-  <si>
-    <t>https://www.justice.gov/contact-us</t>
+    <t>1 800 New Pain</t>
+  </si>
+  <si>
+    <t>(800) 639-7246</t>
+  </si>
+  <si>
+    <t>960 SW 40th Ave FL</t>
+  </si>
+  <si>
+    <t>1218 Holding Inc</t>
+  </si>
+  <si>
+    <t>(305) 662-6610</t>
+  </si>
+  <si>
+    <t>7300 N Kendall Dr FL</t>
+  </si>
+  <si>
+    <t>123 Bail Bonds Fianzas</t>
+  </si>
+  <si>
+    <t>(305) 548-0505</t>
+  </si>
+  <si>
+    <t>7025 NW 41st St FL</t>
+  </si>
+  <si>
+    <t>1800 Ayuda lo ayudan en miami</t>
+  </si>
+  <si>
+    <t>(800) 305-7967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1wayne Robert Atty</t>
+  </si>
+  <si>
+    <t>(305) 264-3850</t>
+  </si>
+  <si>
+    <t>1225 SW 87th Ave FL</t>
+  </si>
+  <si>
+    <t>2340 S Dixie Hwy</t>
+  </si>
+  <si>
+    <t>(305) 858-3100</t>
+  </si>
+  <si>
+    <t>2340 S Dixie Hwy FL</t>
+  </si>
+  <si>
+    <t>24/7 Legal</t>
+  </si>
+  <si>
+    <t>http://c.ypcdn.com/2/c/rtd?vrid=gxs0rc3yx0&amp;rid=ba47b340-b348-4734-8aa7-0a126c51d738&amp;ptid=gxs0rc3yx0&amp;ypid=524940742&amp;lid=1001703418940&amp;tl=6&amp;lsrc=IY&amp;dest=http%3A%2F%2Fwww.call247legal.com%2F</t>
+  </si>
+  <si>
+    <t>(888) 659-7710</t>
+  </si>
+  <si>
+    <t>1405 Dreshertown Rd PA</t>
+  </si>
+  <si>
+    <t>24/7a Law Firm Pa</t>
+  </si>
+  <si>
+    <t>(305) 405-0490</t>
+  </si>
+  <si>
+    <t>395 W 10th St Ste 1 FL</t>
+  </si>
+  <si>
+    <t>300 Management Corp</t>
+  </si>
+  <si>
+    <t>(305) 854-1904</t>
+  </si>
+  <si>
+    <t>2440 Coral Way FL</t>
+  </si>
+  <si>
+    <t>588wald Stafford &amp; Wald</t>
+  </si>
+  <si>
+    <t>(305) 270-7900</t>
+  </si>
+  <si>
+    <t>7700 N Kendall Dr FL</t>
+  </si>
+  <si>
+    <t>877 Hurt 153</t>
+  </si>
+  <si>
+    <t>(877) 487-8153</t>
+  </si>
+  <si>
+    <t>14750 SW 26th St FL</t>
+  </si>
+  <si>
+    <t>954 Bankruptcy Law</t>
+  </si>
+  <si>
+    <t>(786) 459-9785</t>
+  </si>
+  <si>
+    <t>2399 Collins Ave Apt 1116 FL</t>
+  </si>
+  <si>
+    <t>A A G A Group Inc</t>
+  </si>
+  <si>
+    <t>(305) 551-4593</t>
+  </si>
+  <si>
+    <t>13872 SW 8th St FL</t>
+  </si>
+  <si>
+    <t>A Abel Advocates</t>
+  </si>
+  <si>
+    <t>(305) 251-1181</t>
+  </si>
+  <si>
+    <t>8877 SW 131st St FL</t>
+  </si>
+  <si>
+    <t>A Ability Advocate</t>
+  </si>
+  <si>
+    <t>(305) 891-9099</t>
+  </si>
+  <si>
+    <t>11098 Biscayne Blvd FL</t>
+  </si>
+  <si>
+    <t>A Able Accident Attorneys</t>
+  </si>
+  <si>
+    <t>(305) 854-8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FL</t>
+  </si>
+  <si>
+    <t>A Able Attorney</t>
+  </si>
+  <si>
+    <t>(305) 639-1732</t>
+  </si>
+  <si>
+    <t>6500 W 21st Ct FL</t>
+  </si>
+  <si>
+    <t>A Abogado Elias B Rudnikas</t>
+  </si>
+  <si>
+    <t>(305) 642-5000</t>
+  </si>
+  <si>
+    <t>3670 NW 6th St FL</t>
+  </si>
+  <si>
+    <t>A Accident Advocacy Associates</t>
+  </si>
+  <si>
+    <t>(305) 856-5555</t>
+  </si>
+  <si>
+    <t>2600 SW 3rd Ave FL</t>
+  </si>
+  <si>
+    <t>145 Street Animal Hospital</t>
+  </si>
+  <si>
+    <t>(212) 234-3489</t>
+  </si>
+  <si>
+    <t>454 W 145th St NY</t>
+  </si>
+  <si>
+    <t>36 Ave Animal Clinic</t>
+  </si>
+  <si>
+    <t>(718) 752-1488</t>
+  </si>
+  <si>
+    <t>2533 36th Ave NY</t>
+  </si>
+  <si>
+    <t>36 St Animal Clinic</t>
+  </si>
+  <si>
+    <t>(718) 606-9832</t>
+  </si>
+  <si>
+    <t>2175 36th St NY</t>
+  </si>
+  <si>
+    <t>5th Avenue Cat Clinic</t>
+  </si>
+  <si>
+    <t>(718) 398-1187</t>
+  </si>
+  <si>
+    <t>225 5th Ave NY</t>
+  </si>
+  <si>
+    <t>6th Avenue Animal Clinic</t>
+  </si>
+  <si>
+    <t>(718) 789-7170</t>
+  </si>
+  <si>
+    <t>207 6th Ave NY</t>
+  </si>
+  <si>
+    <t>A Animal Clinic Of Queens</t>
+  </si>
+  <si>
+    <t>(718) 821-0100</t>
+  </si>
+  <si>
+    <t>7846 Metropolitan Ave NY</t>
+  </si>
+  <si>
+    <t>A Animal Clinic of Queens</t>
+  </si>
+  <si>
+    <t>(718) 417-6200</t>
+  </si>
+  <si>
+    <t>6512 Fresh Pond Rd NY</t>
+  </si>
+  <si>
+    <t>A B C Animal Hospital</t>
+  </si>
+  <si>
+    <t>(212) 358-0785</t>
+  </si>
+  <si>
+    <t>532 E 14th St NY</t>
+  </si>
+  <si>
+    <t>A C C Brooklyn Animal Care</t>
+  </si>
+  <si>
+    <t>(212) 722-3580</t>
+  </si>
+  <si>
+    <t>326 E 110th St NY</t>
+  </si>
+  <si>
+    <t>A House Call Service</t>
+  </si>
+  <si>
+    <t>(212) 838-2569</t>
+  </si>
+  <si>
+    <t>349 E 49th St NY</t>
+  </si>
+  <si>
+    <t>A House Call Service Dvm</t>
+  </si>
+  <si>
+    <t>A Woodhaven Boarding Kennels</t>
+  </si>
+  <si>
+    <t>(718) 296-8244</t>
+  </si>
+  <si>
+    <t>7623 Jamaica Ave NY</t>
+  </si>
+  <si>
+    <t>Aamcny</t>
+  </si>
+  <si>
+    <t>(212) 694-7640</t>
+  </si>
+  <si>
+    <t>226 W 150th St NY</t>
+  </si>
+  <si>
+    <t>ABC Animal Hospital</t>
+  </si>
+  <si>
+    <t>200 Avenue A NY</t>
+  </si>
+  <si>
+    <t>Abingdon Square Vetry Clinic</t>
+  </si>
+  <si>
+    <t>(212) 242-9169</t>
+  </si>
+  <si>
+    <t>130 W 10th St NY</t>
+  </si>
+  <si>
+    <t>Acosta Chantal DVM</t>
+  </si>
+  <si>
+    <t>(646) 571-0096</t>
+  </si>
+  <si>
+    <t>164 W 21st St NY</t>
+  </si>
+  <si>
+    <t>Alexandru, A</t>
+  </si>
+  <si>
+    <t>(718) 372-6600</t>
+  </si>
+  <si>
+    <t>8317 20th Ave NY</t>
+  </si>
+  <si>
+    <t>Alison Rhein DVM</t>
+  </si>
+  <si>
+    <t>(212) 925-6100</t>
+  </si>
+  <si>
+    <t>5 Lispenard St NY</t>
+  </si>
+  <si>
+    <t>Abogados Inc</t>
+  </si>
+  <si>
+    <t>(305) 442-9804</t>
+  </si>
+  <si>
+    <t>782 NW 42nd Ave FL</t>
+  </si>
+  <si>
+    <t>Abogado De Inmigracion</t>
+  </si>
+  <si>
+    <t>(954) 522-1452</t>
+  </si>
+  <si>
+    <t>300 S Avenue Of The Arts FL</t>
+  </si>
+  <si>
+    <t>Abogado Michael Vander Wyden, Esq. – Abogados de Inmigracion</t>
+  </si>
+  <si>
+    <t>(305) 559-7878</t>
+  </si>
+  <si>
+    <t>11321 W Flagler St FL</t>
+  </si>
+  <si>
+    <t>Abogados de Accidentes</t>
+  </si>
+  <si>
+    <t>(800) 511-2983</t>
+  </si>
+  <si>
+    <t>Abogados-De-Asilo</t>
+  </si>
+  <si>
+    <t>(631) 780-5685</t>
+  </si>
+  <si>
+    <t>2853 Executive Park Dr FL</t>
+  </si>
+  <si>
+    <t>Abogados W</t>
+  </si>
+  <si>
+    <t>(786) 409-7370</t>
+  </si>
+  <si>
+    <t>2100 Ponce De Leon Blvd FL</t>
+  </si>
+  <si>
+    <t>CJ Abogados</t>
+  </si>
+  <si>
+    <t>(786) 542-6055</t>
+  </si>
+  <si>
+    <t>104 Crandon Blvd FL</t>
+  </si>
+  <si>
+    <t>Flaxman Law Group / Abogados</t>
+  </si>
+  <si>
+    <t>(954) 987-0099</t>
+  </si>
+  <si>
+    <t>5715 Johnson St FL</t>
+  </si>
+  <si>
+    <t>1st Florida State Mortgage</t>
+  </si>
+  <si>
+    <t>(305) 571-1934</t>
+  </si>
+  <si>
+    <t>4770 Biscayne Blvd FL</t>
+  </si>
+  <si>
+    <t>50 State Realty</t>
+  </si>
+  <si>
+    <t>(786) 615-3331</t>
+  </si>
+  <si>
+    <t>13391 Memorial Hwy FL</t>
+  </si>
+  <si>
+    <t>All State Properties</t>
+  </si>
+  <si>
+    <t>(954) 572-2113</t>
+  </si>
+  <si>
+    <t>5500 NW 69th Ave FL</t>
+  </si>
+  <si>
+    <t>All State Realty Corp</t>
+  </si>
+  <si>
+    <t>(305) 576-6335</t>
+  </si>
+  <si>
+    <t>2601 Biscayne Blvd FL</t>
+  </si>
+  <si>
+    <t>AR1 State of the Art Real Estate Inc</t>
+  </si>
+  <si>
+    <t>(954) 958-9881</t>
+  </si>
+  <si>
+    <t>301 E Commercial Blvd FL</t>
+  </si>
+  <si>
+    <t>Ar1 State Of The Art Rl Est</t>
+  </si>
+  <si>
+    <t>2463 E Commercial Blvd FL</t>
+  </si>
+  <si>
+    <t>Atlantic States Mortgage Corp</t>
+  </si>
+  <si>
+    <t>(954) 646-6300</t>
+  </si>
+  <si>
+    <t>1323 S Dixie Hwy W FL</t>
+  </si>
+  <si>
+    <t>Avatar Real State Services</t>
+  </si>
+  <si>
+    <t>(305) 662-9975</t>
+  </si>
+  <si>
+    <t>7500 S Red Rd FL</t>
+  </si>
+  <si>
+    <t>Ayk Realstate Corp</t>
+  </si>
+  <si>
+    <t>(954) 749-9111</t>
+  </si>
+  <si>
+    <t>5251 NW 103rd Ave FL</t>
+  </si>
+  <si>
+    <t>Chrisken Real State Management</t>
+  </si>
+  <si>
+    <t>(305) 532-1600</t>
+  </si>
+  <si>
+    <t>1450 Meridian Ave Apt 9 FL</t>
+  </si>
+  <si>
+    <t>First Florida State Mortgage Corp</t>
+  </si>
+  <si>
+    <t>(954) 390-7667</t>
+  </si>
+  <si>
+    <t>1040 Bayview Dr FL</t>
+  </si>
+  <si>
+    <t>Florida State Trust</t>
+  </si>
+  <si>
+    <t>(954) 393-1333</t>
+  </si>
+  <si>
+    <t>975 N Miami Beach Blvd FL</t>
+  </si>
+  <si>
+    <t>Grand State</t>
+  </si>
+  <si>
+    <t>(954) 613-7724</t>
+  </si>
+  <si>
+    <t>1920 E Hallandale Beach Blvd FL</t>
+  </si>
+  <si>
+    <t>Grand State Realty Inc</t>
+  </si>
+  <si>
+    <t>(305) 949-0502</t>
+  </si>
+  <si>
+    <t>2155 NE 163rd St FL</t>
+  </si>
+  <si>
+    <t>Joe Caprio and Company Real State</t>
+  </si>
+  <si>
+    <t>(954) 434-1776</t>
+  </si>
+  <si>
+    <t>4789 Volunteer Rd Ste 103 FL</t>
+  </si>
+  <si>
+    <t>Mv Real State Holding</t>
+  </si>
+  <si>
+    <t>(786) 470-2067</t>
+  </si>
+  <si>
+    <t>2001 NW 7th St FL</t>
+  </si>
+  <si>
+    <t>Orion Real State Group Inc</t>
+  </si>
+  <si>
+    <t>(305) 220-7649</t>
+  </si>
+  <si>
+    <t>10198 W Flagler St FL</t>
+  </si>
+  <si>
+    <t>Peter Lawrence Commercial Real State Inc</t>
+  </si>
+  <si>
+    <t>(305) 436-1119</t>
+  </si>
+  <si>
+    <t>2930 NW 75th Ave FL</t>
+  </si>
+  <si>
+    <t>Alcohol Beverages &amp; Tobacco</t>
+  </si>
+  <si>
+    <t>(305) 470-6783</t>
+  </si>
+  <si>
+    <t>8240 NW 52nd Ter Ste 303 FL</t>
+  </si>
+  <si>
+    <t>Attorney General's Office</t>
+  </si>
+  <si>
+    <t>(305) 377-5441</t>
+  </si>
+  <si>
+    <t>444 Brickell Ave Ste 650 FL</t>
+  </si>
+  <si>
+    <t>Biscayne Park Police Dept</t>
+  </si>
+  <si>
+    <t>(305) 595-6263</t>
+  </si>
+  <si>
+    <t>640 NE 114th St FL</t>
+  </si>
+  <si>
+    <t>Cerda Llanos Y Cia Inc</t>
+  </si>
+  <si>
+    <t>(305) 661-9966</t>
+  </si>
+  <si>
+    <t>4990 SW 72nd Ave Ste 109 FL</t>
+  </si>
+  <si>
+    <t>Citizens Crime Watch Of Dade County</t>
+  </si>
+  <si>
+    <t>(305) 470-1670</t>
+  </si>
+  <si>
+    <t>1515 NW 79th Ave FL</t>
+  </si>
+  <si>
+    <t>City Of Coral Gables FL</t>
+  </si>
+  <si>
+    <t>(305) 460-5008</t>
+  </si>
+  <si>
+    <t>405 Biltmore Way FL</t>
+  </si>
+  <si>
+    <t>City of Doral Police Police Department</t>
+  </si>
+  <si>
+    <t>(305) 471-8131</t>
+  </si>
+  <si>
+    <t>6100 NW 99th Ave FL</t>
+  </si>
+  <si>
+    <t>City of Miami</t>
+  </si>
+  <si>
+    <t>(305) 643-7160</t>
+  </si>
+  <si>
+    <t>2200 W Flagler St FL</t>
+  </si>
+  <si>
+    <t>City Of Miami</t>
+  </si>
+  <si>
+    <t>(305) 374-6545</t>
+  </si>
+  <si>
+    <t>19 W Flagler St FL</t>
+  </si>
+  <si>
+    <t>City Of Miami Beach</t>
+  </si>
+  <si>
+    <t>(305) 673-7040</t>
+  </si>
+  <si>
+    <t>1100 Washington Ave FL</t>
+  </si>
+  <si>
+    <t>City of Miami Beach Police Department</t>
+  </si>
+  <si>
+    <t>(786) 631-4099</t>
+  </si>
+  <si>
+    <t>6700 NW 36th Ave FL</t>
+  </si>
+  <si>
+    <t>City of Miami Police Department</t>
+  </si>
+  <si>
+    <t>(305) 603-6640</t>
+  </si>
+  <si>
+    <t>400 NW 2nd Ave FL</t>
+  </si>
+  <si>
+    <t>City Of Miami Retired Fire And Police Association</t>
+  </si>
+  <si>
+    <t>(305) 638-5959</t>
+  </si>
+  <si>
+    <t>2300 NW 14th St FL</t>
+  </si>
+  <si>
+    <t>City of North Miami</t>
+  </si>
+  <si>
+    <t>(305) 893-6511</t>
+  </si>
+  <si>
+    <t>776 NE 125th St FL</t>
+  </si>
+  <si>
+    <t>City Of West Miami Police Department</t>
+  </si>
+  <si>
+    <t>(305) 266-0530</t>
+  </si>
+  <si>
+    <t>901 SW 62nd Ave FL</t>
+  </si>
+  <si>
+    <t>Garcia Ghezzi Arquitects Inc.</t>
+  </si>
+  <si>
+    <t>(786) 573-4466</t>
+  </si>
+  <si>
+    <t>9595 N Kendall Dr Ste 101 FL</t>
   </si>
 </sst>
 </file>
@@ -496,13 +1762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,101 +1784,98 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -620,105 +1883,1116 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D15" t="s">
         <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="F6" r:id="rId8"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
     <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId12"/>
     <hyperlink ref="B9" r:id="rId13"/>
     <hyperlink ref="B10" r:id="rId14"/>
-    <hyperlink ref="F10" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId15"/>
     <hyperlink ref="B11" r:id="rId16"/>
-    <hyperlink ref="F11" r:id="rId17"/>
-    <hyperlink ref="B12" r:id="rId18"/>
-    <hyperlink ref="F12" r:id="rId19"/>
-    <hyperlink ref="B13" r:id="rId20"/>
-    <hyperlink ref="F13" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId17"/>
+    <hyperlink ref="B13" r:id="rId18"/>
+    <hyperlink ref="B14" r:id="rId19"/>
+    <hyperlink ref="B15" r:id="rId20"/>
+    <hyperlink ref="B16" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="E17" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="E18" r:id="rId25"/>
+    <hyperlink ref="B19" r:id="rId26"/>
+    <hyperlink ref="E19" r:id="rId27"/>
+    <hyperlink ref="B20" r:id="rId28"/>
+    <hyperlink ref="E20" r:id="rId29"/>
+    <hyperlink ref="B21" r:id="rId30"/>
+    <hyperlink ref="E21" r:id="rId31"/>
+    <hyperlink ref="B22" r:id="rId32"/>
+    <hyperlink ref="B23" r:id="rId33"/>
+    <hyperlink ref="B24" r:id="rId34"/>
+    <hyperlink ref="B25" r:id="rId35"/>
+    <hyperlink ref="B26" r:id="rId36"/>
+    <hyperlink ref="B27" r:id="rId37"/>
+    <hyperlink ref="B28" r:id="rId38"/>
+    <hyperlink ref="E28" r:id="rId39"/>
+    <hyperlink ref="B29" r:id="rId40"/>
+    <hyperlink ref="E29" r:id="rId41"/>
+    <hyperlink ref="B30" r:id="rId42"/>
+    <hyperlink ref="E30" r:id="rId43"/>
+    <hyperlink ref="B31" r:id="rId44"/>
+    <hyperlink ref="E31" r:id="rId45"/>
+    <hyperlink ref="B32" r:id="rId46"/>
+    <hyperlink ref="E32" r:id="rId47"/>
+    <hyperlink ref="B33" r:id="rId48"/>
+    <hyperlink ref="E33" r:id="rId49"/>
+    <hyperlink ref="B34" r:id="rId50"/>
+    <hyperlink ref="E34" r:id="rId51"/>
+    <hyperlink ref="B35" r:id="rId52"/>
+    <hyperlink ref="E35" r:id="rId53"/>
+    <hyperlink ref="B36" r:id="rId54"/>
+    <hyperlink ref="E36" r:id="rId55"/>
+    <hyperlink ref="B37" r:id="rId56"/>
+    <hyperlink ref="E37" r:id="rId57"/>
+    <hyperlink ref="B38" r:id="rId58"/>
+    <hyperlink ref="B39" r:id="rId59"/>
+    <hyperlink ref="E39" r:id="rId60"/>
+    <hyperlink ref="B40" r:id="rId61"/>
+    <hyperlink ref="B41" r:id="rId62"/>
+    <hyperlink ref="E41" r:id="rId63"/>
+    <hyperlink ref="B42" r:id="rId64"/>
+    <hyperlink ref="B43" r:id="rId65"/>
+    <hyperlink ref="E43" r:id="rId66"/>
+    <hyperlink ref="B44" r:id="rId67"/>
+    <hyperlink ref="B45" r:id="rId68"/>
+    <hyperlink ref="B46" r:id="rId69"/>
+    <hyperlink ref="B47" r:id="rId70"/>
+    <hyperlink ref="B48" r:id="rId71"/>
+    <hyperlink ref="E48" r:id="rId72"/>
+    <hyperlink ref="B49" r:id="rId73"/>
+    <hyperlink ref="B50" r:id="rId74"/>
+    <hyperlink ref="E50" r:id="rId75"/>
+    <hyperlink ref="B51" r:id="rId76"/>
+    <hyperlink ref="B52" r:id="rId77"/>
+    <hyperlink ref="B53" r:id="rId78"/>
+    <hyperlink ref="E53" r:id="rId79"/>
+    <hyperlink ref="B54" r:id="rId80"/>
+    <hyperlink ref="B55" r:id="rId81"/>
+    <hyperlink ref="B56" r:id="rId82"/>
+    <hyperlink ref="B57" r:id="rId83"/>
+    <hyperlink ref="B58" r:id="rId84"/>
+    <hyperlink ref="B59" r:id="rId85"/>
+    <hyperlink ref="B60" r:id="rId86"/>
+    <hyperlink ref="B61" r:id="rId87"/>
+    <hyperlink ref="B62" r:id="rId88"/>
+    <hyperlink ref="E62" r:id="rId89"/>
+    <hyperlink ref="B63" r:id="rId90"/>
+    <hyperlink ref="E63" r:id="rId91"/>
+    <hyperlink ref="B64" r:id="rId92"/>
+    <hyperlink ref="E64" r:id="rId93"/>
+    <hyperlink ref="B65" r:id="rId94"/>
+    <hyperlink ref="B66" r:id="rId95"/>
+    <hyperlink ref="B67" r:id="rId96"/>
+    <hyperlink ref="E67" r:id="rId97"/>
+    <hyperlink ref="B68" r:id="rId98"/>
+    <hyperlink ref="B69" r:id="rId99"/>
+    <hyperlink ref="B70" r:id="rId100"/>
+    <hyperlink ref="B71" r:id="rId101"/>
+    <hyperlink ref="B72" r:id="rId102"/>
+    <hyperlink ref="B73" r:id="rId103"/>
+    <hyperlink ref="E73" r:id="rId104"/>
+    <hyperlink ref="B74" r:id="rId105"/>
+    <hyperlink ref="E74" r:id="rId106"/>
+    <hyperlink ref="B75" r:id="rId107"/>
+    <hyperlink ref="E75" r:id="rId108"/>
+    <hyperlink ref="B76" r:id="rId109"/>
+    <hyperlink ref="B77" r:id="rId110"/>
+    <hyperlink ref="B78" r:id="rId111"/>
+    <hyperlink ref="B79" r:id="rId112"/>
+    <hyperlink ref="B80" r:id="rId113"/>
+    <hyperlink ref="E80" r:id="rId114"/>
+    <hyperlink ref="B81" r:id="rId115"/>
+    <hyperlink ref="E81" r:id="rId116"/>
+    <hyperlink ref="B82" r:id="rId117"/>
+    <hyperlink ref="B83" r:id="rId118"/>
+    <hyperlink ref="B84" r:id="rId119"/>
+    <hyperlink ref="B85" r:id="rId120"/>
+    <hyperlink ref="B86" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,12 +3000,905 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
+      <c r="E42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>374</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" t="s">
+        <v>389</v>
+      </c>
+      <c r="E54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="s">
+        <v>395</v>
+      </c>
+      <c r="E56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>400</v>
+      </c>
+      <c r="C58" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>403</v>
+      </c>
+      <c r="C59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C60" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>412</v>
+      </c>
+      <c r="C62" t="s">
+        <v>413</v>
+      </c>
+      <c r="E62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" t="s">
+        <v>416</v>
+      </c>
+      <c r="E63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>421</v>
+      </c>
+      <c r="C65" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>424</v>
+      </c>
+      <c r="C66" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>427</v>
+      </c>
+      <c r="C67" t="s">
+        <v>428</v>
+      </c>
+      <c r="E67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" t="s">
+        <v>431</v>
+      </c>
+      <c r="E68" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>433</v>
+      </c>
+      <c r="C69" t="s">
+        <v>434</v>
+      </c>
+      <c r="E69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>439</v>
+      </c>
+      <c r="C71" t="s">
+        <v>440</v>
+      </c>
+      <c r="E71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>442</v>
+      </c>
+      <c r="C72" t="s">
+        <v>443</v>
+      </c>
+      <c r="E72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" t="s">
+        <v>446</v>
+      </c>
+      <c r="E73" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>451</v>
+      </c>
+      <c r="C75" t="s">
+        <v>452</v>
+      </c>
+      <c r="E75" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>454</v>
+      </c>
+      <c r="C76" t="s">
+        <v>455</v>
+      </c>
+      <c r="E76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" t="s">
+        <v>458</v>
+      </c>
+      <c r="E77" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>460</v>
+      </c>
+      <c r="C78" t="s">
+        <v>461</v>
+      </c>
+      <c r="E78" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>464</v>
+      </c>
+      <c r="E79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>466</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="E80" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/assets/unicode_name.xlsx
+++ b/main/assets/unicode_name.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Sitio</t>
   </si>
@@ -32,85 +32,10 @@
     <t>Pagina Contacto</t>
   </si>
   <si>
-    <t>Find BBB Accredited Attorneys and Lawyers near Miami, FL</t>
-  </si>
-  <si>
-    <t>https://www.bbb.org/south-east-florida/accredited-business-directory/attorneys-and-lawyers/miami-fl</t>
-  </si>
-  <si>
-    <t>Attorney Miami | Best Florida Accident Lawyers</t>
-  </si>
-  <si>
-    <t>https://www.goldbergandrosen.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(888)314-0906, (888)314-0906 , (888)314-0906 , (888)314-0906 , (888)314-0906 , (888)314-0906 </t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.goldbergandrosen.com/contact/</t>
-  </si>
-  <si>
-    <t>Kathryn Ross-Speers - Attorney At Law - Home</t>
-  </si>
-  <si>
-    <t>http://kathrynrossspeersattorney.com/</t>
-  </si>
-  <si>
-    <t>918-542-2272</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Seitles &amp; Litwin: Miami Florida Federal Criminal Defense Lawyers</t>
-  </si>
-  <si>
-    <t>https://www.seitleslaw.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(305)403-8070, (305)403-8070 </t>
-  </si>
-  <si>
-    <t>['info@seitleslaw.com', 'info@seitleslaw.com', 'mseitles@seitleslaw.com', 'alitwin@seitleslaw.com', 'richard@seitleslaw.com', 'info@seitleslaw.com']</t>
-  </si>
-  <si>
-    <t>https://www.seitleslaw.com/contact/</t>
-  </si>
-  <si>
-    <t>Miami Estate Planning Lawyer | Pinecrest Probate &amp; Trust ...</t>
-  </si>
-  <si>
-    <t>http://www.probatemiami.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305-742-0029, 305-670-6203 </t>
-  </si>
-  <si>
-    <t>http://www.probatemiami.com/Contact.shtml</t>
-  </si>
-  <si>
-    <t>https://www.law.com/dailybusinessreview/sites/dailybusinessreview/2017/12/21/office-building-near-miami-gardens-sells-for-1-million/</t>
-  </si>
-  <si>
-    <t>http://nunezlaw.com/</t>
-  </si>
-  <si>
-    <t>https://www.avvo.com/lawsuits-disputes-lawyer/fl/miami.html</t>
+    <t>http://www.immigrationmiami.com/</t>
   </si>
   <si>
     <t>Direccion</t>
-  </si>
-  <si>
-    <t>A Adoration</t>
-  </si>
-  <si>
-    <t>(305) 633-9882</t>
-  </si>
-  <si>
-    <t>3371 NW 19th St FL</t>
   </si>
 </sst>
 </file>
@@ -451,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,109 +400,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,7 +414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -605,18 +434,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/main/assets/unicode_name.xlsx
+++ b/main/assets/unicode_name.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Sitio</t>
   </si>
@@ -32,7 +32,157 @@
     <t>Pagina Contacto</t>
   </si>
   <si>
-    <t>http://www.immigrationmiami.com/</t>
+    <t>Ranking Promedio</t>
+  </si>
+  <si>
+    <t>Oppotunity</t>
+  </si>
+  <si>
+    <t>Search Date</t>
+  </si>
+  <si>
+    <t>busqueda relacionada = None</t>
+  </si>
+  <si>
+    <t>https://www.realself.com/</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>You currently rank somewhere in the top 10 on 1 search phrases on Google. If you could land number one spot for all those searches, you'd get about 12132.72 additional clicks per month. That would cost you more than $73691.10 in equivalent PPC dollars.</t>
+  </si>
+  <si>
+    <t>2018-02-02</t>
+  </si>
+  <si>
+    <t>http://www.tamiamidentalcenter.com/</t>
+  </si>
+  <si>
+    <t>https://www.cosmeticdentistrymiami.com/</t>
+  </si>
+  <si>
+    <t>busqueda relacionada = dental implants</t>
+  </si>
+  <si>
+    <t>10 ClearChoice Dental Implants providers near Miami, FL | RealSelf</t>
+  </si>
+  <si>
+    <t>https://www.realself.com/find/Florida/Miami/ClearChoice-Dental-Implants</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>You currently rank somewhere in the top None on None search phrases on Google. If you could land number one spot for all those searches, you'd get about None additional clicks per month. That would cost you more than $None in equivalent PPC dollars.</t>
+  </si>
+  <si>
+    <t>Dental Implants Miami Beach: Cosmetic Dentist - Miami, FL</t>
+  </si>
+  <si>
+    <t>https://www.dentalimplantsmiamibeach.com/</t>
+  </si>
+  <si>
+    <t>Centers for Dental Implants of Miami</t>
+  </si>
+  <si>
+    <t>http://www.gargdmd.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)935-4991, (954)455-3434 , (954)392-1635 , (305)541-5556 , 3059354991 , (305)935-4991 , (954)455-3434 , (954)392-1635 , (305)541-5556 , (305)935-4991 , (954)455-3434 , (954)392-1635 , (305)541-5556 </t>
+  </si>
+  <si>
+    <t>['miamiimplantsurgeon@gmail.com']</t>
+  </si>
+  <si>
+    <t>http://www.gargdmd.com/contact-us.html</t>
+  </si>
+  <si>
+    <t>New Life Dental: Dental Implants Miami, Florida | Implants for Teeth ...</t>
+  </si>
+  <si>
+    <t>http://www.dentalnewlife.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-740-1496, 305-740-1496 </t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>http://www.dentalnewlife.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Dental Implant North Miami FL | Dental Implants Near You</t>
+  </si>
+  <si>
+    <t>http://www.biscaynedentalcenter.com/services/dental-implants/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-945-7745, 305-945-7745 , 305-945-7745 , 305-945-7745 , 305-553-9655 </t>
+  </si>
+  <si>
+    <t>http://www.biscaynedentalcenter.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Cosmetic Dentist Miami FL | Miami Center for Cosmetic and Implant ...</t>
+  </si>
+  <si>
+    <t>https://www.miamicosmeticdentalcare.com/</t>
+  </si>
+  <si>
+    <t>Tooth Implants in Coral Gables FL</t>
+  </si>
+  <si>
+    <t>https://www.cosmeticdentistrymiami.com/implant-dentistry.html</t>
+  </si>
+  <si>
+    <t>Dental Implants | Periodontist Dentist &amp; Sedation Dentistry | Miami ...</t>
+  </si>
+  <si>
+    <t>http://www.toothfairyworkshop.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(954)963-4700, (954)963-4700 , (954)963-4700 </t>
+  </si>
+  <si>
+    <t>['info@toothfairyworkshop.com']</t>
+  </si>
+  <si>
+    <t>http://www.toothfairyworkshop.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Aventura Dentist | Dentist in Aventura | Hallandale, FL Cosmetic ...</t>
+  </si>
+  <si>
+    <t>http://www.kanedental.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)466-1444, (305)466-1444 </t>
+  </si>
+  <si>
+    <t>http://www.kanedental.com/contact_information</t>
+  </si>
+  <si>
+    <t>Dental Implants Miami FL | Affordable Doral Dental Implant Cost</t>
+  </si>
+  <si>
+    <t>http://www.dentistmiamisprings.com/dental_implants.php</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Miami Beach, Aventura Oral Surgery &amp; Dental Implants</t>
+  </si>
+  <si>
+    <t>http://www.blumnico.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-538-4556, 305-538-4556 , 305-538-4556 </t>
+  </si>
+  <si>
+    <t>http://www.blumnico.com/contact-us/</t>
   </si>
   <si>
     <t>Direccion</t>
@@ -376,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,15 +548,337 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="E14" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId16"/>
+    <hyperlink ref="E15" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
+    <hyperlink ref="B17" r:id="rId19"/>
+    <hyperlink ref="E17" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -434,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/main/assets/unicode_name.xlsx
+++ b/main/assets/unicode_name.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Sitio</t>
   </si>
@@ -44,31 +44,73 @@
     <t>busqueda relacionada = None</t>
   </si>
   <si>
-    <t>https://www.realself.com/</t>
+    <t>http://www.mdc.edu/</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>You currently rank somewhere in the top 10 on 1 search phrases on Google. If you could land number one spot for all those searches, you'd get about 12132.72 additional clicks per month. That would cost you more than $73691.10 in equivalent PPC dollars.</t>
-  </si>
-  <si>
-    <t>2018-02-02</t>
-  </si>
-  <si>
-    <t>http://www.tamiamidentalcenter.com/</t>
-  </si>
-  <si>
-    <t>https://www.cosmeticdentistrymiami.com/</t>
-  </si>
-  <si>
-    <t>busqueda relacionada = dental implants</t>
-  </si>
-  <si>
-    <t>10 ClearChoice Dental Implants providers near Miami, FL | RealSelf</t>
-  </si>
-  <si>
-    <t>https://www.realself.com/find/Florida/Miami/ClearChoice-Dental-Implants</t>
+    <t>You currently rank somewhere in the top 10 on 1 search phrases on Google. If you could land number one spot for all those searches, you'd get about 0.00 additional clicks per month. That would cost you more than $0.00 in equivalent PPC dollars.</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>https://www.greatexpressions.com/</t>
+  </si>
+  <si>
+    <t>https://www.towncaredental.com/</t>
+  </si>
+  <si>
+    <t>https://ufhealth.org/</t>
+  </si>
+  <si>
+    <t>busqueda relacionada = odontologia</t>
+  </si>
+  <si>
+    <t>Home | Florida International University in Miami, FL</t>
+  </si>
+  <si>
+    <t>https://www.fiu.edu/</t>
+  </si>
+  <si>
+    <t>Apple Dental Group: Dentist Miami Springs FL | Doral Dentist Near ...</t>
+  </si>
+  <si>
+    <t>http://www.dentistmiamisprings.com/</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>https://welcome.miami.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305-284-2374, 305-284-2211 , 305-284-2211 </t>
+  </si>
+  <si>
+    <t>Miami Dental Sedation Spa: Sedation Dentistry Miami FL</t>
+  </si>
+  <si>
+    <t>https://www.miamidentalsedationspa.com/</t>
+  </si>
+  <si>
+    <t>Miami Beach Dentist | Miami Beach Dental Center</t>
+  </si>
+  <si>
+    <t>https://www.towncaredental.com/locations/miami-beach-dental-center/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(855)979-3502, (855)979-3502 </t>
+  </si>
+  <si>
+    <t>https://www.towncaredental.com/contact-us/</t>
   </si>
   <si>
     <t>None</t>
@@ -77,112 +119,67 @@
     <t>You currently rank somewhere in the top None on None search phrases on Google. If you could land number one spot for all those searches, you'd get about None additional clicks per month. That would cost you more than $None in equivalent PPC dollars.</t>
   </si>
   <si>
-    <t>Dental Implants Miami Beach: Cosmetic Dentist - Miami, FL</t>
-  </si>
-  <si>
-    <t>https://www.dentalimplantsmiamibeach.com/</t>
-  </si>
-  <si>
-    <t>Centers for Dental Implants of Miami</t>
-  </si>
-  <si>
-    <t>http://www.gargdmd.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(305)935-4991, (954)455-3434 , (954)392-1635 , (305)541-5556 , 3059354991 , (305)935-4991 , (954)455-3434 , (954)392-1635 , (305)541-5556 , (305)935-4991 , (954)455-3434 , (954)392-1635 , (305)541-5556 </t>
-  </si>
-  <si>
-    <t>['miamiimplantsurgeon@gmail.com']</t>
-  </si>
-  <si>
-    <t>http://www.gargdmd.com/contact-us.html</t>
-  </si>
-  <si>
-    <t>New Life Dental: Dental Implants Miami, Florida | Implants for Teeth ...</t>
-  </si>
-  <si>
-    <t>http://www.dentalnewlife.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305-740-1496, 305-740-1496 </t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>http://www.dentalnewlife.com/contact-us/</t>
-  </si>
-  <si>
-    <t>Dental Implant North Miami FL | Dental Implants Near You</t>
-  </si>
-  <si>
-    <t>http://www.biscaynedentalcenter.com/services/dental-implants/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305-945-7745, 305-945-7745 , 305-945-7745 , 305-945-7745 , 305-553-9655 </t>
-  </si>
-  <si>
-    <t>http://www.biscaynedentalcenter.com/contact-us/</t>
-  </si>
-  <si>
-    <t>Cosmetic Dentist Miami FL | Miami Center for Cosmetic and Implant ...</t>
-  </si>
-  <si>
-    <t>https://www.miamicosmeticdentalcare.com/</t>
-  </si>
-  <si>
-    <t>Tooth Implants in Coral Gables FL</t>
-  </si>
-  <si>
-    <t>https://www.cosmeticdentistrymiami.com/implant-dentistry.html</t>
-  </si>
-  <si>
-    <t>Dental Implants | Periodontist Dentist &amp; Sedation Dentistry | Miami ...</t>
-  </si>
-  <si>
-    <t>http://www.toothfairyworkshop.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(954)963-4700, (954)963-4700 , (954)963-4700 </t>
-  </si>
-  <si>
-    <t>['info@toothfairyworkshop.com']</t>
-  </si>
-  <si>
-    <t>http://www.toothfairyworkshop.com/contact-us/</t>
-  </si>
-  <si>
-    <t>Aventura Dentist | Dentist in Aventura | Hallandale, FL Cosmetic ...</t>
-  </si>
-  <si>
-    <t>http://www.kanedental.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(305)466-1444, (305)466-1444 </t>
-  </si>
-  <si>
-    <t>http://www.kanedental.com/contact_information</t>
-  </si>
-  <si>
-    <t>Dental Implants Miami FL | Affordable Doral Dental Implant Cost</t>
-  </si>
-  <si>
-    <t>http://www.dentistmiamisprings.com/dental_implants.php</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Miami Beach, Aventura Oral Surgery &amp; Dental Implants</t>
-  </si>
-  <si>
-    <t>http://www.blumnico.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305-538-4556, 305-538-4556 , 305-538-4556 </t>
-  </si>
-  <si>
-    <t>http://www.blumnico.com/contact-us/</t>
+    <t>Miami Florida Dentist 33186 305-385-4215 | Teeth Cleanings ...</t>
+  </si>
+  <si>
+    <t>https://www.greatexpressions.com/dental-offices/florida-offices/miami-fort-lauderdale/kendale-lakes</t>
+  </si>
+  <si>
+    <t>https://www.greatexpressions.com/contact-us/affiliate-your-practice/affiliate-what-happens</t>
+  </si>
+  <si>
+    <t>Servi-Dent: Dental Supply Store Miami, Florida (FL) | Deposito ...</t>
+  </si>
+  <si>
+    <t>http://www.servi-dent.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(305)264-6541, (305)264-9206 </t>
+  </si>
+  <si>
+    <t>['sales.cc@servi-dent.com']</t>
+  </si>
+  <si>
+    <t>http://www.servi-dent.com/product/contact-matrix-clinical-kit-plus/</t>
+  </si>
+  <si>
+    <t>Dental Hygiene Associate in Science | Miami Dade College</t>
+  </si>
+  <si>
+    <t>http://www.mdc.edu/dentalhygiene/</t>
+  </si>
+  <si>
+    <t>['mdcinfo@mdc.edu']</t>
+  </si>
+  <si>
+    <t>http://www.mdc.edu/about/contact/</t>
+  </si>
+  <si>
+    <t>Dr. Maria Yazji: Orthodontist in Miami, Brickell, and Weston FL</t>
+  </si>
+  <si>
+    <t>http://www.orthodonticsinmiami.com/</t>
+  </si>
+  <si>
+    <t>UF Health Hialeah Dental Center | UF Health, University of Florida ...</t>
+  </si>
+  <si>
+    <t>https://ufhealth.org/hialeah-dental-center</t>
+  </si>
+  <si>
+    <t>https://ufhealth.org/contact-webmaster?title=&amp;url=ahc-web21.ahc.ufl.edu/</t>
+  </si>
+  <si>
+    <t>Mount Sinai Medical Center, Miami, FL Hospital. -</t>
+  </si>
+  <si>
+    <t>https://www.msmc.com/</t>
+  </si>
+  <si>
+    <t>Dental Services for Our Community - Medical Campus | Miami Dade ...</t>
+  </si>
+  <si>
+    <t>http://www.mdc.edu/medical/campus-information/dental-clinic.aspx</t>
   </si>
   <si>
     <t>Direccion</t>
@@ -526,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,33 +603,30 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -646,19 +640,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -672,19 +663,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -698,25 +689,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -724,16 +706,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -741,16 +732,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -758,19 +755,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -784,25 +781,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -810,22 +804,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -833,27 +821,70 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -862,23 +893,25 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="E14" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="E15" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="E17" r:id="rId20"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="E15" r:id="rId16"/>
+    <hyperlink ref="B16" r:id="rId17"/>
+    <hyperlink ref="B17" r:id="rId18"/>
+    <hyperlink ref="E17" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="E19" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -906,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
